--- a/apps/load_data/2016/09/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/09/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0916\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0916\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F112616-0E81-456A-80FD-B18D115F0370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405F913-E917-4A54-BFD7-97B01CD4C2E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$301</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$239</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11904" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11889" uniqueCount="2486">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6473,9 +6474,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047     96776     967761081    296920    2969201082    159880    1598802001         0     385992006     41800     418002026    189270    1892702028      5000      42182086      2500      25002180       250       2502182       100       100</t>
@@ -8342,8 +8340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:XFD301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD295" sqref="AC210:AD295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44170,12 +44168,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -44234,10 +44227,10 @@
         <v>109</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2151</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2152</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>112</v>
@@ -44246,7 +44239,7 @@
         <v>102</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>116</v>
@@ -44267,13 +44260,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2154</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2155</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -44308,13 +44301,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2157</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2158</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2159</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -44346,12 +44339,7 @@
       <c r="AB211" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -44398,7 +44386,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="BB211" s="1">
         <v>9</v>
@@ -44410,10 +44398,10 @@
         <v>109</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2161</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2162</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>112</v>
@@ -44425,13 +44413,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BS211" s="3">
         <v>36949</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>116</v>
@@ -44455,13 +44443,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1790</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -44496,13 +44484,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2168</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2169</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -44534,12 +44522,7 @@
       <c r="AB212" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -44586,7 +44569,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BB212" s="1">
         <v>9</v>
@@ -44601,7 +44584,7 @@
         <v>109</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1459</v>
@@ -44616,13 +44599,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BS212" s="3">
         <v>36825</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>116</v>
@@ -44646,13 +44629,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2174</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2175</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2176</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -44687,13 +44670,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2178</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2179</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -44722,12 +44705,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -44777,7 +44755,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BB213" s="1">
         <v>9</v>
@@ -44789,7 +44767,7 @@
         <v>109</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>180</v>
@@ -44801,7 +44779,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>116</v>
@@ -44819,13 +44797,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>1103</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -44860,13 +44838,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2186</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2187</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -44895,12 +44873,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -44950,7 +44923,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BB214" s="1">
         <v>9</v>
@@ -44962,7 +44935,7 @@
         <v>109</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>795</v>
@@ -44974,7 +44947,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>116</v>
@@ -44995,10 +44968,10 @@
         <v>632</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2191</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2192</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45033,13 +45006,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2193</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2194</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2195</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45068,12 +45041,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45123,7 +45091,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="BB215" s="1">
         <v>9</v>
@@ -45138,7 +45106,7 @@
         <v>843</v>
       </c>
       <c r="BI215" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>112</v>
@@ -45147,7 +45115,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>116</v>
@@ -45165,13 +45133,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2199</v>
-      </c>
-      <c r="CD215" s="1" t="s">
-        <v>2199</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2200</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45206,13 +45174,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2203</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -45247,12 +45215,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -45299,7 +45262,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BB216" s="1">
         <v>9</v>
@@ -45308,16 +45271,16 @@
         <v>16</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2206</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2207</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>112</v>
@@ -45329,13 +45292,13 @@
         <v>113</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="BS216" s="3">
         <v>35243</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>116</v>
@@ -45353,13 +45316,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2211</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -45394,13 +45357,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2214</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2215</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -45429,12 +45392,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -45484,7 +45442,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="BB217" s="1">
         <v>9</v>
@@ -45496,10 +45454,10 @@
         <v>109</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2217</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2218</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>112</v>
@@ -45508,7 +45466,7 @@
         <v>102</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>116</v>
@@ -45526,13 +45484,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2221</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -45567,13 +45525,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2224</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2225</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -45602,12 +45560,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -45657,7 +45610,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="BB218" s="1">
         <v>9</v>
@@ -45669,10 +45622,10 @@
         <v>109</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2227</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2228</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>112</v>
@@ -45684,7 +45637,7 @@
         <v>153</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>116</v>
@@ -45702,13 +45655,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2231</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2232</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -45743,13 +45696,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2234</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2235</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -45778,12 +45731,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -45830,7 +45778,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BB219" s="1">
         <v>9</v>
@@ -45839,16 +45787,16 @@
         <v>16</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2238</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2239</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>112</v>
@@ -45860,13 +45808,13 @@
         <v>207</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BS219" s="3">
         <v>34307</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>116</v>
@@ -45884,13 +45832,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>419</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -45925,13 +45873,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2245</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2246</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -45963,12 +45911,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46018,7 +45961,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BB220" s="1">
         <v>9</v>
@@ -46033,7 +45976,7 @@
         <v>109</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>180</v>
@@ -46045,7 +45988,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>116</v>
@@ -46066,13 +46009,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2251</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46107,13 +46050,13 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2255</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46142,12 +46085,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>103</v>
       </c>
@@ -46194,7 +46132,7 @@
         <v>98</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BB221" s="1">
         <v>9</v>
@@ -46209,10 +46147,10 @@
         <v>109</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2257</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2258</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>112</v>
@@ -46224,13 +46162,13 @@
         <v>113</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BS221" s="3">
         <v>35950</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>116</v>
@@ -46248,13 +46186,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -46289,13 +46227,13 @@
         <v>142</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -46346,7 +46284,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -46385,13 +46323,13 @@
         <v>109</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>116</v>
@@ -46415,10 +46353,10 @@
         <v>2047</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -46453,13 +46391,13 @@
         <v>142</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2273</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -46513,7 +46451,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -46552,13 +46490,13 @@
         <v>109</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>116</v>
@@ -46579,13 +46517,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2277</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2278</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -46620,13 +46558,13 @@
         <v>142</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2280</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2281</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -46680,7 +46618,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -46719,13 +46657,13 @@
         <v>109</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>116</v>
@@ -46746,13 +46684,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2286</v>
       </c>
     </row>
     <row r="225" spans="1:84" x14ac:dyDescent="0.25">
@@ -46787,13 +46725,13 @@
         <v>142</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -46883,13 +46821,13 @@
         <v>109</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>116</v>
@@ -46910,10 +46848,10 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="CE225" s="1" t="s">
         <v>197</v>
@@ -46951,13 +46889,13 @@
         <v>142</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2294</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2295</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47011,7 +46949,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47050,13 +46988,13 @@
         <v>109</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>116</v>
@@ -47080,13 +47018,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="227" spans="1:84" x14ac:dyDescent="0.25">
@@ -47121,13 +47059,13 @@
         <v>142</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -47178,7 +47116,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="AO227" s="1">
         <v>0</v>
@@ -47217,13 +47155,13 @@
         <v>109</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>116</v>
@@ -47244,13 +47182,13 @@
         <v>98</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2306</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2221</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="228" spans="1:84" x14ac:dyDescent="0.25">
@@ -47285,10 +47223,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -47372,7 +47310,7 @@
         <v>373</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="229" spans="1:84" x14ac:dyDescent="0.25">
@@ -47407,10 +47345,10 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2310</v>
-      </c>
-      <c r="L229" s="1" t="s">
-        <v>2311</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -47491,7 +47429,7 @@
         <v>373</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="230" spans="1:84" x14ac:dyDescent="0.25">
@@ -47526,13 +47464,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2313</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2314</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -47613,7 +47551,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BB230" s="1">
         <v>9</v>
@@ -47625,10 +47563,10 @@
         <v>109</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2316</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2317</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>112</v>
@@ -47640,7 +47578,7 @@
         <v>153</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>116</v>
@@ -47658,13 +47596,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>419</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="231" spans="1:84" x14ac:dyDescent="0.25">
@@ -47699,13 +47637,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -47783,7 +47721,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BB231" s="1">
         <v>9</v>
@@ -47795,10 +47733,10 @@
         <v>109</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>112</v>
@@ -47810,13 +47748,13 @@
         <v>207</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BS231" s="3">
         <v>36099</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>116</v>
@@ -47834,13 +47772,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2331</v>
       </c>
     </row>
     <row r="232" spans="1:84" x14ac:dyDescent="0.25">
@@ -47875,13 +47813,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -47959,7 +47897,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BB232" s="1">
         <v>9</v>
@@ -47971,7 +47909,7 @@
         <v>109</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1739</v>
@@ -47986,13 +47924,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BS232" s="3">
         <v>37735</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>116</v>
@@ -48010,13 +47948,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="233" spans="1:84" x14ac:dyDescent="0.25">
@@ -48051,13 +47989,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2343</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2344</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -48138,7 +48076,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BB233" s="1">
         <v>9</v>
@@ -48150,7 +48088,7 @@
         <v>109</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>2055</v>
@@ -48162,7 +48100,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>116</v>
@@ -48180,13 +48118,13 @@
         <v>98</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>797</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="234" spans="1:84" x14ac:dyDescent="0.25">
@@ -48221,13 +48159,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -48263,7 +48201,7 @@
         <v>103</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>1728</v>
@@ -48308,7 +48246,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BB234" s="1">
         <v>9</v>
@@ -48320,10 +48258,10 @@
         <v>109</v>
       </c>
       <c r="BH234" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>112</v>
@@ -48332,7 +48270,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>116</v>
@@ -48353,10 +48291,10 @@
         <v>1440</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="235" spans="1:84" x14ac:dyDescent="0.25">
@@ -48391,13 +48329,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2361</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2362</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -48478,7 +48416,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BB235" s="1">
         <v>9</v>
@@ -48490,7 +48428,7 @@
         <v>109</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BI235" s="1" t="s">
         <v>1881</v>
@@ -48502,7 +48440,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>116</v>
@@ -48526,7 +48464,7 @@
         <v>864</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="236" spans="1:84" x14ac:dyDescent="0.25">
@@ -48561,13 +48499,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2369</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -48606,7 +48544,7 @@
         <v>607</v>
       </c>
       <c r="AH236" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="AI236" s="1" t="s">
         <v>98</v>
@@ -48648,7 +48586,7 @@
         <v>98</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BB236" s="1">
         <v>9</v>
@@ -48660,10 +48598,10 @@
         <v>109</v>
       </c>
       <c r="BH236" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2373</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>112</v>
@@ -48672,7 +48610,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>116</v>
@@ -48690,13 +48628,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="CD236" s="1" t="s">
         <v>2375</v>
       </c>
-      <c r="CD236" s="1" t="s">
+      <c r="CE236" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>2377</v>
       </c>
     </row>
     <row r="237" spans="1:84" x14ac:dyDescent="0.25">
@@ -48731,13 +48669,13 @@
         <v>142</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2380</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -48779,7 +48717,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -48812,13 +48750,13 @@
         <v>109</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>112</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>116</v>
@@ -48836,13 +48774,13 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>301</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="238" spans="1:84" x14ac:dyDescent="0.25">
@@ -48877,16 +48815,16 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="M238" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="M238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="Q238" s="3">
         <v>23125</v>
@@ -48919,7 +48857,7 @@
         <v>42247</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>103</v>
@@ -48970,7 +48908,7 @@
         <v>1419</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>112</v>
@@ -48982,13 +48920,13 @@
         <v>207</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BS238" s="3">
         <v>36580</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>116</v>
@@ -49009,7 +48947,7 @@
         <v>98</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>291</v>
@@ -49053,10 +48991,10 @@
         <v>252</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>254</v>
@@ -49086,7 +49024,7 @@
         <v>42582</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>103</v>
@@ -49137,10 +49075,10 @@
         <v>255</v>
       </c>
       <c r="BH239" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="BI239" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="BI239" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>112</v>
@@ -49227,7 +49165,7 @@
         <v>97</v>
       </c>
       <c r="P240" s="4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="Q240" s="5">
         <v>20332</v>
@@ -49334,7 +49272,7 @@
         <v>109</v>
       </c>
       <c r="BH240" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI240" s="4"/>
       <c r="BJ240" s="4"/>
@@ -49427,7 +49365,7 @@
         <v>97</v>
       </c>
       <c r="P241" s="4" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="Q241" s="5">
         <v>21670</v>
@@ -49532,7 +49470,7 @@
         <v>109</v>
       </c>
       <c r="BH241" s="4" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BI241" s="4"/>
       <c r="BJ241" s="4"/>
@@ -49632,7 +49570,7 @@
         <v>97</v>
       </c>
       <c r="P242" s="4" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="Q242" s="5">
         <v>20503</v>
@@ -49742,7 +49680,7 @@
         <v>109</v>
       </c>
       <c r="BH242" s="4" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BI242" s="4"/>
       <c r="BJ242" s="4"/>
@@ -49837,7 +49775,7 @@
         <v>97</v>
       </c>
       <c r="P243" s="4" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="Q243" s="5">
         <v>23601</v>
@@ -49944,7 +49882,7 @@
         <v>109</v>
       </c>
       <c r="BH243" s="4" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BI243" s="4"/>
       <c r="BJ243" s="4"/>
@@ -50037,7 +49975,7 @@
         <v>97</v>
       </c>
       <c r="P244" s="4" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="Q244" s="5">
         <v>26843</v>
@@ -50142,7 +50080,7 @@
         <v>109</v>
       </c>
       <c r="BH244" s="4" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BI244" s="4"/>
       <c r="BJ244" s="4"/>
@@ -50242,7 +50180,7 @@
         <v>97</v>
       </c>
       <c r="P245" s="4" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="Q245" s="5">
         <v>25520</v>
@@ -50347,7 +50285,7 @@
         <v>109</v>
       </c>
       <c r="BH245" s="4" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BI245" s="4"/>
       <c r="BJ245" s="4"/>
@@ -50449,7 +50387,7 @@
         <v>97</v>
       </c>
       <c r="P246" s="4" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="Q246" s="5">
         <v>19897</v>
@@ -50556,7 +50494,7 @@
         <v>109</v>
       </c>
       <c r="BH246" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI246" s="4"/>
       <c r="BJ246" s="4"/>
@@ -50654,7 +50592,7 @@
         <v>97</v>
       </c>
       <c r="P247" s="4" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="Q247" s="5">
         <v>22380</v>
@@ -50759,7 +50697,7 @@
         <v>109</v>
       </c>
       <c r="BH247" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI247" s="4"/>
       <c r="BJ247" s="4"/>
@@ -50861,7 +50799,7 @@
         <v>97</v>
       </c>
       <c r="P248" s="4" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="Q248" s="5">
         <v>26243</v>
@@ -50968,7 +50906,7 @@
         <v>109</v>
       </c>
       <c r="BH248" s="4" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BI248" s="4"/>
       <c r="BJ248" s="4"/>
@@ -51063,7 +51001,7 @@
         <v>97</v>
       </c>
       <c r="P249" s="4" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="Q249" s="5">
         <v>25159</v>
@@ -51166,7 +51104,7 @@
         <v>109</v>
       </c>
       <c r="BH249" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI249" s="4"/>
       <c r="BJ249" s="4"/>
@@ -51263,7 +51201,7 @@
         <v>97</v>
       </c>
       <c r="P250" s="4" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="Q250" s="5">
         <v>17041</v>
@@ -51366,7 +51304,7 @@
         <v>109</v>
       </c>
       <c r="BH250" s="4" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BI250" s="4"/>
       <c r="BJ250" s="4"/>
@@ -51461,7 +51399,7 @@
         <v>97</v>
       </c>
       <c r="P251" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="Q251" s="5">
         <v>27266</v>
@@ -51564,7 +51502,7 @@
         <v>109</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -51659,7 +51597,7 @@
         <v>97</v>
       </c>
       <c r="P252" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="Q252" s="5">
         <v>23036</v>
@@ -51764,7 +51702,7 @@
         <v>109</v>
       </c>
       <c r="BH252" s="4" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="BI252" s="4"/>
       <c r="BJ252" s="4"/>
@@ -51859,7 +51797,7 @@
         <v>97</v>
       </c>
       <c r="P253" s="4" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="Q253" s="5">
         <v>23395</v>
@@ -51964,7 +51902,7 @@
         <v>109</v>
       </c>
       <c r="BH253" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI253" s="4"/>
       <c r="BJ253" s="4"/>
@@ -52059,7 +51997,7 @@
         <v>97</v>
       </c>
       <c r="P254" s="4" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="Q254" s="5">
         <v>24472</v>
@@ -52164,7 +52102,7 @@
         <v>109</v>
       </c>
       <c r="BH254" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI254" s="4"/>
       <c r="BJ254" s="4"/>
@@ -52264,7 +52202,7 @@
         <v>97</v>
       </c>
       <c r="P255" s="4" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="Q255" s="5">
         <v>24197</v>
@@ -52369,7 +52307,7 @@
         <v>109</v>
       </c>
       <c r="BH255" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI255" s="4"/>
       <c r="BJ255" s="4"/>
@@ -52469,7 +52407,7 @@
         <v>97</v>
       </c>
       <c r="P256" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="Q256" s="5">
         <v>23589</v>
@@ -52574,7 +52512,7 @@
         <v>109</v>
       </c>
       <c r="BH256" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI256" s="4"/>
       <c r="BJ256" s="4"/>
@@ -52674,7 +52612,7 @@
         <v>97</v>
       </c>
       <c r="P257" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="Q257" s="5">
         <v>20035</v>
@@ -52784,7 +52722,7 @@
         <v>109</v>
       </c>
       <c r="BH257" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI257" s="4"/>
       <c r="BJ257" s="4"/>
@@ -52884,7 +52822,7 @@
         <v>97</v>
       </c>
       <c r="P258" s="4" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="Q258" s="5">
         <v>23640</v>
@@ -52994,7 +52932,7 @@
         <v>109</v>
       </c>
       <c r="BH258" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI258" s="4"/>
       <c r="BJ258" s="4"/>
@@ -53096,7 +53034,7 @@
         <v>97</v>
       </c>
       <c r="P259" s="4" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="Q259" s="5">
         <v>20996</v>
@@ -53203,7 +53141,7 @@
         <v>109</v>
       </c>
       <c r="BH259" s="4" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="BI259" s="4"/>
       <c r="BJ259" s="4"/>
@@ -53303,7 +53241,7 @@
         <v>97</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="Q260" s="5">
         <v>20665</v>
@@ -53411,7 +53349,7 @@
         <v>109</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -53511,7 +53449,7 @@
         <v>97</v>
       </c>
       <c r="P261" s="4" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="Q261" s="5">
         <v>22517</v>
@@ -53619,7 +53557,7 @@
         <v>109</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -53723,7 +53661,7 @@
         <v>97</v>
       </c>
       <c r="P262" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="Q262" s="5">
         <v>24031</v>
@@ -53833,7 +53771,7 @@
         <v>109</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -53935,7 +53873,7 @@
         <v>97</v>
       </c>
       <c r="P263" s="4" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="Q263" s="5">
         <v>28636</v>
@@ -54043,7 +53981,7 @@
         <v>109</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -54147,7 +54085,7 @@
         <v>97</v>
       </c>
       <c r="P264" s="4" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="Q264" s="5">
         <v>25631</v>
@@ -54255,7 +54193,7 @@
         <v>109</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -54355,7 +54293,7 @@
         <v>97</v>
       </c>
       <c r="P265" s="4" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="Q265" s="5">
         <v>23708</v>
@@ -54462,7 +54400,7 @@
         <v>109</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -54566,7 +54504,7 @@
         <v>97</v>
       </c>
       <c r="P266" s="4" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="Q266" s="5">
         <v>24576</v>
@@ -54674,7 +54612,7 @@
         <v>109</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -54778,7 +54716,7 @@
         <v>97</v>
       </c>
       <c r="P267" s="4" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="Q267" s="5">
         <v>23013</v>
@@ -54888,7 +54826,7 @@
         <v>109</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -54990,7 +54928,7 @@
         <v>97</v>
       </c>
       <c r="P268" s="4" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="Q268" s="5">
         <v>22907</v>
@@ -55100,7 +55038,7 @@
         <v>109</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -55200,7 +55138,7 @@
         <v>97</v>
       </c>
       <c r="P269" s="4" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="Q269" s="5">
         <v>24527</v>
@@ -55305,7 +55243,7 @@
         <v>109</v>
       </c>
       <c r="BH269" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI269" s="4"/>
       <c r="BJ269" s="4"/>
@@ -55409,7 +55347,7 @@
         <v>97</v>
       </c>
       <c r="P270" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="Q270" s="5">
         <v>24849</v>
@@ -55517,7 +55455,7 @@
         <v>109</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -55623,7 +55561,7 @@
         <v>97</v>
       </c>
       <c r="P271" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="Q271" s="5">
         <v>24870</v>
@@ -55727,7 +55665,7 @@
         <v>109</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -55829,7 +55767,7 @@
         <v>97</v>
       </c>
       <c r="P272" s="4" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="Q272" s="5">
         <v>20980</v>
@@ -55932,7 +55870,7 @@
         <v>109</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -56036,7 +55974,7 @@
         <v>97</v>
       </c>
       <c r="P273" s="4" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="Q273" s="5">
         <v>25264</v>
@@ -56139,7 +56077,7 @@
         <v>109</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -56243,7 +56181,7 @@
         <v>97</v>
       </c>
       <c r="P274" s="4" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="Q274" s="5">
         <v>22935</v>
@@ -56349,7 +56287,7 @@
         <v>109</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -56453,7 +56391,7 @@
         <v>97</v>
       </c>
       <c r="P275" s="4" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="Q275" s="5">
         <v>27263</v>
@@ -56561,7 +56499,7 @@
         <v>109</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -56665,7 +56603,7 @@
         <v>97</v>
       </c>
       <c r="P276" s="4" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="Q276" s="5">
         <v>20970</v>
@@ -56768,7 +56706,7 @@
         <v>109</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -56865,7 +56803,7 @@
         <v>97</v>
       </c>
       <c r="P277" s="4" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="Q277" s="5">
         <v>22447</v>
@@ -56968,7 +56906,7 @@
         <v>109</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -57065,7 +57003,7 @@
         <v>97</v>
       </c>
       <c r="P278" s="4" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="Q278" s="5">
         <v>22227</v>
@@ -57166,7 +57104,7 @@
         <v>109</v>
       </c>
       <c r="BH278" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI278" s="4"/>
       <c r="BJ278" s="4"/>
@@ -57270,7 +57208,7 @@
         <v>97</v>
       </c>
       <c r="P279" s="4" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="Q279" s="5">
         <v>24278</v>
@@ -57373,7 +57311,7 @@
         <v>109</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -57468,7 +57406,7 @@
         <v>97</v>
       </c>
       <c r="P280" s="4" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="Q280" s="5">
         <v>27929</v>
@@ -57569,7 +57507,7 @@
         <v>109</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -57671,7 +57609,7 @@
         <v>97</v>
       </c>
       <c r="P281" s="4" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="Q281" s="5">
         <v>27433</v>
@@ -57774,7 +57712,7 @@
         <v>109</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -57876,7 +57814,7 @@
         <v>97</v>
       </c>
       <c r="P282" s="4" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="Q282" s="5">
         <v>26374</v>
@@ -57977,7 +57915,7 @@
         <v>109</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -58079,7 +58017,7 @@
         <v>97</v>
       </c>
       <c r="P283" s="4" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="Q283" s="5">
         <v>25186</v>
@@ -58187,7 +58125,7 @@
         <v>109</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -58289,7 +58227,7 @@
         <v>97</v>
       </c>
       <c r="P284" s="4" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="Q284" s="5">
         <v>25726</v>
@@ -58394,7 +58332,7 @@
         <v>109</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -58487,7 +58425,7 @@
         <v>97</v>
       </c>
       <c r="P285" s="4" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="Q285" s="5">
         <v>25656</v>
@@ -58590,7 +58528,7 @@
         <v>109</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -58690,7 +58628,7 @@
         <v>97</v>
       </c>
       <c r="P286" s="4" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="Q286" s="5">
         <v>26397</v>
@@ -58795,7 +58733,7 @@
         <v>109</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -58888,7 +58826,7 @@
         <v>97</v>
       </c>
       <c r="P287" s="4" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="Q287" s="5">
         <v>27443</v>
@@ -58989,7 +58927,7 @@
         <v>109</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -59091,7 +59029,7 @@
         <v>97</v>
       </c>
       <c r="P288" s="4" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="Q288" s="5">
         <v>24006</v>
@@ -59197,7 +59135,7 @@
         <v>109</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -59290,7 +59228,7 @@
         <v>97</v>
       </c>
       <c r="P289" s="4" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="Q289" s="5">
         <v>26193</v>
@@ -59396,7 +59334,7 @@
         <v>109</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BI289" s="4"/>
       <c r="BJ289" s="4"/>
@@ -59489,7 +59427,7 @@
         <v>97</v>
       </c>
       <c r="P290" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="Q290" s="5">
         <v>24325</v>
@@ -59595,7 +59533,7 @@
         <v>109</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -59690,7 +59628,7 @@
         <v>97</v>
       </c>
       <c r="P291" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="Q291" s="5">
         <v>23289</v>
@@ -59798,7 +59736,7 @@
         <v>109</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -59891,7 +59829,7 @@
         <v>97</v>
       </c>
       <c r="P292" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="Q292" s="5">
         <v>26655</v>
@@ -59996,7 +59934,7 @@
         <v>109</v>
       </c>
       <c r="BH292" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI292" s="4"/>
       <c r="BJ292" s="4"/>
@@ -60078,20 +60016,20 @@
         <v>93</v>
       </c>
       <c r="K293" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L293" s="4" t="s">
         <v>2157</v>
-      </c>
-      <c r="L293" s="4" t="s">
-        <v>2158</v>
       </c>
       <c r="M293" s="4"/>
       <c r="N293" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="O293" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P293" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="Q293" s="5">
         <v>27241</v>
@@ -60120,12 +60058,8 @@
       <c r="AB293" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="AC293" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD293" s="4" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC293" s="5"/>
+      <c r="AD293" s="4"/>
       <c r="AF293" s="4" t="s">
         <v>103</v>
       </c>
@@ -60179,7 +60113,7 @@
         <v>98</v>
       </c>
       <c r="AZ293" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="BA293" s="4" t="s">
         <v>272</v>
@@ -60201,7 +60135,7 @@
         <v>109</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -60219,13 +60153,13 @@
       <c r="BP293" s="4"/>
       <c r="BQ293" s="4"/>
       <c r="BR293" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BS293" s="5">
         <v>36949</v>
       </c>
       <c r="BT293" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="BU293" s="4" t="s">
         <v>116</v>
@@ -60250,13 +60184,13 @@
         <v>98</v>
       </c>
       <c r="CC293" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="CD293" s="4" t="s">
         <v>1790</v>
       </c>
       <c r="CE293" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="CF293" s="4"/>
     </row>
@@ -60292,20 +60226,20 @@
         <v>93</v>
       </c>
       <c r="K294" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="L294" s="4" t="s">
         <v>2167</v>
-      </c>
-      <c r="L294" s="4" t="s">
-        <v>2168</v>
       </c>
       <c r="M294" s="4"/>
       <c r="N294" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="O294" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P294" s="4" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="Q294" s="5">
         <v>25223</v>
@@ -60334,12 +60268,8 @@
       <c r="AB294" s="4" t="s">
         <v>1118</v>
       </c>
-      <c r="AC294" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD294" s="4" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC294" s="5"/>
+      <c r="AD294" s="4"/>
       <c r="AF294" s="4" t="s">
         <v>103</v>
       </c>
@@ -60393,7 +60323,7 @@
         <v>98</v>
       </c>
       <c r="AZ294" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BA294" s="4" t="s">
         <v>272</v>
@@ -60417,7 +60347,7 @@
         <v>109</v>
       </c>
       <c r="BH294" s="4" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BI294" s="4"/>
       <c r="BJ294" s="4"/>
@@ -60435,13 +60365,13 @@
       <c r="BP294" s="4"/>
       <c r="BQ294" s="4"/>
       <c r="BR294" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="BS294" s="5">
         <v>36825</v>
       </c>
       <c r="BT294" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BU294" s="4" t="s">
         <v>116</v>
@@ -60466,13 +60396,13 @@
         <v>98</v>
       </c>
       <c r="CC294" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="CD294" s="4" t="s">
         <v>2174</v>
       </c>
-      <c r="CD294" s="4" t="s">
+      <c r="CE294" s="4" t="s">
         <v>2175</v>
-      </c>
-      <c r="CE294" s="4" t="s">
-        <v>2176</v>
       </c>
       <c r="CF294" s="4"/>
     </row>
@@ -60508,20 +60438,20 @@
         <v>93</v>
       </c>
       <c r="K295" s="4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="L295" s="4" t="s">
         <v>2233</v>
-      </c>
-      <c r="L295" s="4" t="s">
-        <v>2234</v>
       </c>
       <c r="M295" s="4"/>
       <c r="N295" s="4" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="O295" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P295" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="Q295" s="5">
         <v>23039</v>
@@ -60548,12 +60478,8 @@
         <v>0</v>
       </c>
       <c r="AB295" s="4"/>
-      <c r="AC295" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD295" s="4" t="s">
-        <v>2150</v>
-      </c>
+      <c r="AC295" s="5"/>
+      <c r="AD295" s="4"/>
       <c r="AF295" s="4" t="s">
         <v>103</v>
       </c>
@@ -60607,7 +60533,7 @@
         <v>98</v>
       </c>
       <c r="AZ295" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BA295" s="4" t="s">
         <v>272</v>
@@ -60619,7 +60545,7 @@
         <v>16</v>
       </c>
       <c r="BD295" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="BE295" s="4" t="s">
         <v>1986</v>
@@ -60631,7 +60557,7 @@
         <v>109</v>
       </c>
       <c r="BH295" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI295" s="4"/>
       <c r="BJ295" s="4"/>
@@ -60649,13 +60575,13 @@
       <c r="BP295" s="4"/>
       <c r="BQ295" s="4"/>
       <c r="BR295" s="4" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BS295" s="5">
         <v>34307</v>
       </c>
       <c r="BT295" s="4" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BU295" s="4" t="s">
         <v>116</v>
@@ -60676,13 +60602,13 @@
         <v>98</v>
       </c>
       <c r="CC295" s="4" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="CD295" s="4" t="s">
         <v>419</v>
       </c>
       <c r="CE295" s="4" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="CF295" s="4"/>
     </row>
@@ -60718,20 +60644,20 @@
         <v>142</v>
       </c>
       <c r="K296" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L296" s="4" t="s">
         <v>2271</v>
-      </c>
-      <c r="L296" s="4" t="s">
-        <v>2272</v>
       </c>
       <c r="M296" s="4"/>
       <c r="N296" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="O296" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P296" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="Q296" s="5">
         <v>30589</v>
@@ -60784,7 +60710,7 @@
         <v>0</v>
       </c>
       <c r="AN296" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AO296" s="4">
         <v>0</v>
@@ -60836,7 +60762,7 @@
         <v>109</v>
       </c>
       <c r="BH296" s="4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BI296" s="4"/>
       <c r="BJ296" s="4"/>
@@ -60851,7 +60777,7 @@
       <c r="BQ296" s="4"/>
       <c r="BR296" s="4"/>
       <c r="BT296" s="4" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="BU296" s="4" t="s">
         <v>116</v>
@@ -60874,13 +60800,13 @@
         <v>98</v>
       </c>
       <c r="CC296" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="CD296" s="4" t="s">
         <v>2276</v>
       </c>
-      <c r="CD296" s="4" t="s">
+      <c r="CE296" s="4" t="s">
         <v>2277</v>
-      </c>
-      <c r="CE296" s="4" t="s">
-        <v>2278</v>
       </c>
       <c r="CF296" s="4"/>
     </row>
@@ -60916,20 +60842,20 @@
         <v>142</v>
       </c>
       <c r="K297" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L297" s="4" t="s">
         <v>2279</v>
-      </c>
-      <c r="L297" s="4" t="s">
-        <v>2280</v>
       </c>
       <c r="M297" s="4"/>
       <c r="N297" s="4" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="O297" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P297" s="4" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="Q297" s="5">
         <v>27354</v>
@@ -60982,7 +60908,7 @@
         <v>0</v>
       </c>
       <c r="AN297" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AO297" s="4">
         <v>0</v>
@@ -61034,7 +60960,7 @@
         <v>109</v>
       </c>
       <c r="BH297" s="4" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BI297" s="4"/>
       <c r="BJ297" s="4"/>
@@ -61049,7 +60975,7 @@
       <c r="BQ297" s="4"/>
       <c r="BR297" s="4"/>
       <c r="BT297" s="4" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BU297" s="4" t="s">
         <v>116</v>
@@ -61072,13 +60998,13 @@
         <v>98</v>
       </c>
       <c r="CC297" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="CD297" s="4" t="s">
         <v>2284</v>
       </c>
-      <c r="CD297" s="4" t="s">
+      <c r="CE297" s="4" t="s">
         <v>2285</v>
-      </c>
-      <c r="CE297" s="4" t="s">
-        <v>2286</v>
       </c>
       <c r="CF297" s="4"/>
     </row>
@@ -61114,20 +61040,20 @@
         <v>142</v>
       </c>
       <c r="K298" s="4" t="s">
+        <v>2292</v>
+      </c>
+      <c r="L298" s="4" t="s">
         <v>2293</v>
-      </c>
-      <c r="L298" s="4" t="s">
-        <v>2294</v>
       </c>
       <c r="M298" s="4"/>
       <c r="N298" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="O298" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P298" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="Q298" s="5">
         <v>26074</v>
@@ -61180,7 +61106,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AO298" s="4">
         <v>0</v>
@@ -61232,7 +61158,7 @@
         <v>109</v>
       </c>
       <c r="BH298" s="4" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BI298" s="4"/>
       <c r="BJ298" s="4"/>
@@ -61247,7 +61173,7 @@
       <c r="BQ298" s="4"/>
       <c r="BR298" s="4"/>
       <c r="BT298" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="BU298" s="4" t="s">
         <v>116</v>
@@ -61272,13 +61198,13 @@
         <v>98</v>
       </c>
       <c r="CC298" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="CD298" s="4" t="s">
         <v>1126</v>
       </c>
       <c r="CE298" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="CF298" s="4"/>
     </row>
@@ -61314,20 +61240,20 @@
         <v>93</v>
       </c>
       <c r="K299" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L299" s="4" t="s">
         <v>2321</v>
-      </c>
-      <c r="L299" s="4" t="s">
-        <v>2322</v>
       </c>
       <c r="M299" s="4"/>
       <c r="N299" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="O299" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P299" s="4" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="Q299" s="5">
         <v>28239</v>
@@ -61410,7 +61336,7 @@
         <v>98</v>
       </c>
       <c r="AZ299" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BA299" s="4" t="s">
         <v>272</v>
@@ -61432,7 +61358,7 @@
         <v>109</v>
       </c>
       <c r="BH299" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BI299" s="4"/>
       <c r="BJ299" s="4"/>
@@ -61450,13 +61376,13 @@
       <c r="BP299" s="4"/>
       <c r="BQ299" s="4"/>
       <c r="BR299" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BS299" s="5">
         <v>36099</v>
       </c>
       <c r="BT299" s="4" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU299" s="4" t="s">
         <v>116</v>
@@ -61477,13 +61403,13 @@
         <v>98</v>
       </c>
       <c r="CC299" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="CD299" s="4" t="s">
         <v>2329</v>
       </c>
-      <c r="CD299" s="4" t="s">
+      <c r="CE299" s="4" t="s">
         <v>2330</v>
-      </c>
-      <c r="CE299" s="4" t="s">
-        <v>2331</v>
       </c>
       <c r="CF299" s="4"/>
     </row>
@@ -61519,20 +61445,20 @@
         <v>93</v>
       </c>
       <c r="K300" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L300" s="4" t="s">
         <v>2332</v>
-      </c>
-      <c r="L300" s="4" t="s">
-        <v>2333</v>
       </c>
       <c r="M300" s="4"/>
       <c r="N300" s="4" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="O300" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P300" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="Q300" s="5">
         <v>25589</v>
@@ -61615,7 +61541,7 @@
         <v>98</v>
       </c>
       <c r="AZ300" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BA300" s="4" t="s">
         <v>272</v>
@@ -61637,7 +61563,7 @@
         <v>109</v>
       </c>
       <c r="BH300" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BI300" s="4"/>
       <c r="BJ300" s="4"/>
@@ -61655,13 +61581,13 @@
       <c r="BP300" s="4"/>
       <c r="BQ300" s="4"/>
       <c r="BR300" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BS300" s="5">
         <v>37735</v>
       </c>
       <c r="BT300" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU300" s="4" t="s">
         <v>116</v>
@@ -61682,13 +61608,13 @@
         <v>98</v>
       </c>
       <c r="CC300" s="4" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CD300" s="4" t="s">
         <v>2339</v>
       </c>
-      <c r="CD300" s="4" t="s">
+      <c r="CE300" s="4" t="s">
         <v>2340</v>
-      </c>
-      <c r="CE300" s="4" t="s">
-        <v>2341</v>
       </c>
       <c r="CF300" s="4"/>
     </row>
@@ -61724,20 +61650,20 @@
         <v>142</v>
       </c>
       <c r="K301" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="L301" s="4" t="s">
         <v>2378</v>
-      </c>
-      <c r="L301" s="4" t="s">
-        <v>2379</v>
       </c>
       <c r="M301" s="4"/>
       <c r="N301" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="O301" s="4" t="s">
         <v>97</v>
       </c>
       <c r="P301" s="4" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="R301" s="4" t="s">
         <v>129</v>
@@ -61781,7 +61707,7 @@
         <v>0</v>
       </c>
       <c r="AN301" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="AO301" s="4">
         <v>0</v>
@@ -61831,7 +61757,7 @@
         <v>109</v>
       </c>
       <c r="BH301" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BI301" s="4"/>
       <c r="BJ301" s="4"/>
@@ -61846,7 +61772,7 @@
       <c r="BQ301" s="4"/>
       <c r="BR301" s="4"/>
       <c r="BT301" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BU301" s="4" t="s">
         <v>116</v>
@@ -61867,17 +61793,18 @@
         <v>98</v>
       </c>
       <c r="CC301" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="CD301" s="4" t="s">
         <v>301</v>
       </c>
       <c r="CE301" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="CF301" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF301" xr:uid="{AD34124C-3AFF-449D-9B36-B8FC304A68BD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>